--- a/Chain.of.Heroes/Tools/done/WorldMapData.xlsx
+++ b/Chain.of.Heroes/Tools/done/WorldMapData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B82CAF5-CD7D-4746-990D-DD0ED3CDC895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9A1339-C54C-4826-9CD8-EE4606CC1284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorldMap" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -155,43 +155,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Chapter. 01\n에델린 숲 초입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter. 02\n에델린 숲 중심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter. 03\n에델린 숲 끝자락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter. 04\n에델라인 평원 초입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter. 05\n에델라인 평원 중심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter. 06\n 불타는 에델라인 평원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter. 07\n황혼의 사막 초입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter. 08\n황혼의 사막 끝자락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter. 09\n칼날 바위 산맥 초입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter. 10\n사룡의 안식처</t>
+    <t>사룡의 안식처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼날 바위 산맥 초입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황혼의 사막 끝자락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황혼의 사막 초입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불타는 에델라인 평원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에델라인 평원 중심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에델라인 평원 초입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에델린 숲 끝자락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에델린 숲 중심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에델린 숲 초입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +516,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -765,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -843,11 +882,11 @@
       <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16">
-        <v>1</v>
+      <c r="C5" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
@@ -860,11 +899,11 @@
       <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
-        <v>2</v>
+      <c r="C6" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>23</v>
@@ -877,11 +916,11 @@
       <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16">
-        <v>3</v>
+      <c r="C7" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>24</v>
@@ -894,11 +933,11 @@
       <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16">
-        <v>4</v>
+      <c r="C8" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>25</v>
@@ -911,11 +950,11 @@
       <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16">
-        <v>5</v>
+      <c r="C9" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>21</v>
@@ -928,11 +967,11 @@
       <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16">
-        <v>6</v>
+      <c r="C10" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>26</v>
@@ -945,11 +984,11 @@
       <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="16">
-        <v>7</v>
+      <c r="C11" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>27</v>
@@ -962,11 +1001,11 @@
       <c r="B12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="16">
-        <v>8</v>
+      <c r="C12" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>28</v>
@@ -979,11 +1018,11 @@
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16">
-        <v>9</v>
+      <c r="C13" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>29</v>
@@ -996,11 +1035,11 @@
       <c r="B14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>10</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>31</v>

--- a/Chain.of.Heroes/Tools/done/WorldMapData.xlsx
+++ b/Chain.of.Heroes/Tools/done/WorldMapData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9A1339-C54C-4826-9CD8-EE4606CC1284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6712435F-11DF-420E-8E39-F9D2E9E6EC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorldMap" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -192,42 +192,6 @@
   </si>
   <si>
     <t>에델린 숲 초입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -804,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,6 +779,7 @@
     <col min="3" max="3" width="22.625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -882,8 +847,8 @@
       <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>42</v>
+      <c r="C5" s="17">
+        <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>41</v>
@@ -899,8 +864,8 @@
       <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>43</v>
+      <c r="C6" s="17">
+        <v>2</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>40</v>
@@ -916,8 +881,8 @@
       <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>44</v>
+      <c r="C7" s="17">
+        <v>3</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>39</v>
@@ -933,8 +898,8 @@
       <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>45</v>
+      <c r="C8" s="17">
+        <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>38</v>
@@ -950,8 +915,8 @@
       <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>46</v>
+      <c r="C9" s="17">
+        <v>5</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>37</v>
@@ -967,8 +932,8 @@
       <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>47</v>
+      <c r="C10" s="17">
+        <v>6</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>36</v>
@@ -984,8 +949,8 @@
       <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>48</v>
+      <c r="C11" s="17">
+        <v>7</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>35</v>
@@ -1001,8 +966,8 @@
       <c r="B12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>49</v>
+      <c r="C12" s="17">
+        <v>8</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>34</v>
@@ -1018,8 +983,8 @@
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>50</v>
+      <c r="C13" s="17">
+        <v>9</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>33</v>

--- a/Chain.of.Heroes/Tools/done/WorldMapData.xlsx
+++ b/Chain.of.Heroes/Tools/done/WorldMapData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6712435F-11DF-420E-8E39-F9D2E9E6EC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB4BCA1-587F-46D0-A4A9-13AF1BBB0ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -111,6 +111,46 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>에델린 숲 초입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에델린 숲 끝자락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에델린 숲 중심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황혼의 사막 초입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황혼의 사막 끝자락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 불타는 에델라인 평원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에델라인 평원 초입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사룡의 안식처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼날 바위 산맥 초입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에델라인 평원 중심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Background/Center_Of_Edeline_Plains</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -155,43 +195,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사룡의 안식처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼날 바위 산맥 초입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>황혼의 사막 끝자락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>황혼의 사막 초입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불타는 에델라인 평원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에델라인 평원 중심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에델라인 평원 초입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에델린 숲 끝자락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에델린 숲 중심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에델린 숲 초입</t>
+    <t>#튜토리얼 맵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background/Chapter. 00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험의 서막</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,9 +492,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -766,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -777,9 +786,8 @@
     <col min="1" max="1" width="9.5" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="16" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="16" customWidth="1"/>
     <col min="5" max="5" width="42.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -842,172 +850,189 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
-        <v>100001</v>
+        <v>100000</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="17">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="17">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
-        <v>100004</v>
+        <v>100003</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="17">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="16">
+        <v>3</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
-        <v>100005</v>
+        <v>100004</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="17">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="16">
+        <v>4</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
-        <v>100006</v>
+        <v>100005</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="17">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="16">
+        <v>5</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
-        <v>100007</v>
+        <v>100006</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="17">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="16">
+        <v>6</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
-        <v>100008</v>
+        <v>100007</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="17">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="16">
+        <v>7</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
-        <v>100009</v>
+        <v>100008</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="17">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="16">
+        <v>8</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
+        <v>100009</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16">
+        <v>9</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>100010</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C15" s="16">
         <v>10</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>31</v>
+      <c r="D15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
